--- a/aCCTg. pROGRAm/acc receivables.xlsx
+++ b/aCCTg. pROGRAm/acc receivables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -204,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -255,14 +255,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -329,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +364,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,11 +575,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/aCCTg. pROGRAm/acc receivables.xlsx
+++ b/aCCTg. pROGRAm/acc receivables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>CASH</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>JAN</t>
+  </si>
+  <si>
+    <t>5000?</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
   <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,8 +705,8 @@
         <f>+I5</f>
         <v>10000</v>
       </c>
-      <c r="L5">
-        <v>5000</v>
+      <c r="L5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
